--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1924866.28680002</v>
+        <v>1960185.042125788</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914463</v>
+        <v>426806.9758914465</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478715</v>
+        <v>8362709.488478713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7729857.703053878</v>
+        <v>7729857.703053879</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G2" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>90.09798413141016</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>110.9174757594852</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>100.3796369526212</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5810588664029</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>54.80288507895742</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>22.90612036710875</v>
+        <v>83.51289199636496</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>88.82149972473287</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>95.3198211381827</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>32.55564037961413</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>279.132973137283</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.14211163852981</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>47.23959131629378</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12.80658698357637</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>147.0534765912972</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>4.226445869595461</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975093</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
@@ -1706,7 +1706,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>99.9762656141835</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.274844397543</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>47.47529300550337</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>172.4624940940556</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>161.1498838387562</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0.4026817847173583</v>
       </c>
       <c r="I18" t="n">
-        <v>27.47589768952045</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>136.9904813845882</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>75.46400677166021</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>126.2901956092489</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>53.27515195945735</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>41.04963679611168</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>85.73493885277919</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>249.0837676362701</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>160.7042783885303</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>110.9382564621833</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>83.29896986725196</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.7813645628874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>287.8277578872172</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>26.73110927253554</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>83.29896986725196</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
-        <v>135.5974673951708</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
         <v>225.8957288909827</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.4297492890001</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>85.73493885277918</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>26.73110927253622</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>53.92155301737635</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>120.7648547300515</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>74.15307578127806</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.7960563893071</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>178.3846291816076</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>138.5442978989612</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>56.15994138332061</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>116.1776229325296</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.064314025683926</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.51005676905417</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>140.3723668513055</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957288909827</v>
+        <v>190.0828506192233</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.71478864212027</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.94343421959567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>7.064314025684376</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>47.69615615758206</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -3632,13 +3632,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>157.7416325158962</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>164.1254863648505</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>53.47796097396606</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>121.0953087484553</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>154.9723410217679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>139.2160671677936</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
         <v>225.8957288909827</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>73.90328094029421</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>52.250570004629</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>100.8367104035704</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>47.38191319213993</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>59.19197445244119</v>
       </c>
       <c r="U46" t="n">
-        <v>35.1355143955992</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4375,7 +4375,7 @@
         <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.2385984713777</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="C3" t="n">
-        <v>370.2385984713777</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>370.2385984713777</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
         <v>370.2385984713777</v>
@@ -4418,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="V3" t="n">
-        <v>370.2385984713777</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="W3" t="n">
-        <v>370.2385984713777</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="X3" t="n">
-        <v>370.2385984713777</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.2385984713777</v>
+        <v>852.8634924192114</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
         <v>41.77557929797318</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.1934816808115</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C5" t="n">
-        <v>376.1934816808115</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>376.1934816808115</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>376.1934816808115</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>376.1934816808115</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="Y5" t="n">
-        <v>376.1934816808115</v>
+        <v>746.3079049238204</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>807.5311764888174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>807.5311764888174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>599.6796762832846</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.9193775183306</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>517.4848137278872</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>274.0360370837871</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>274.0360370837871</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>274.0360370837871</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>267.0905363345836</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>517.4848137278872</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>517.4848137278872</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>258.688372014889</v>
+        <v>116.3179233773244</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>116.3179233773244</v>
       </c>
       <c r="D9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>634.6640077999109</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>634.6640077999109</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y9" t="n">
-        <v>426.903709034957</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1545.734073968309</v>
+        <v>1934.708842739799</v>
       </c>
       <c r="C11" t="n">
-        <v>1545.734073968309</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="D11" t="n">
-        <v>1545.734073968309</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E11" t="n">
-        <v>1159.945821370065</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F11" t="n">
-        <v>748.9599165804573</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G11" t="n">
-        <v>330.772250651031</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U11" t="n">
-        <v>1898.502729238423</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V11" t="n">
-        <v>1898.502729238423</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W11" t="n">
-        <v>1545.734073968309</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X11" t="n">
-        <v>1545.734073968309</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y11" t="n">
-        <v>1545.734073968309</v>
+        <v>1967.593327971733</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>882.175553373567</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>707.72252409244</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>558.7881144311888</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>399.5506594257333</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>253.0161014526182</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
         <v>161.1406371339194</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.53651143791052</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="C13" t="n">
-        <v>96.53651143791052</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="D13" t="n">
-        <v>96.53651143791052</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E13" t="n">
-        <v>96.53651143791052</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5232,19 +5232,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U13" t="n">
-        <v>640.638169680758</v>
+        <v>627.702223232701</v>
       </c>
       <c r="V13" t="n">
-        <v>385.9536814748711</v>
+        <v>627.702223232701</v>
       </c>
       <c r="W13" t="n">
-        <v>96.53651143791052</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="X13" t="n">
-        <v>96.53651143791052</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.53651143791052</v>
+        <v>338.2850531957404</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1597.538017032897</v>
+        <v>1902.309429408617</v>
       </c>
       <c r="C14" t="n">
-        <v>1597.538017032897</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="D14" t="n">
-        <v>1597.538017032897</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="E14" t="n">
-        <v>1211.749764434653</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F14" t="n">
-        <v>800.7638596450452</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G14" t="n">
-        <v>382.5761937156189</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>53.08888977457889</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5281,10 +5281,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V14" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W14" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X14" t="n">
-        <v>1597.538017032897</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Y14" t="n">
-        <v>1597.538017032897</v>
+        <v>2050.848294652352</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2121.953872694535</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1893.77636876425</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1658.624260532507</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1404.386903804306</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1196.535403598773</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>988.7751048338188</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581505</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="V16" t="n">
-        <v>96.77459395226364</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>496.9262056428357</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1324.613881121158</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="C17" t="n">
-        <v>955.651364180746</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="D17" t="n">
-        <v>597.3856655739955</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E17" t="n">
-        <v>211.5974129757513</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F17" t="n">
-        <v>211.5974129757513</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>211.5974129757513</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5560,7 +5560,7 @@
         <v>1714.753213096969</v>
       </c>
       <c r="Y17" t="n">
-        <v>1324.613881121158</v>
+        <v>1714.753213096969</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.3620754742187</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C18" t="n">
-        <v>775.9090461930917</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D18" t="n">
-        <v>626.9746365318405</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E18" t="n">
-        <v>467.737181526385</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F18" t="n">
-        <v>321.20262355327</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G18" t="n">
-        <v>183.1727360024316</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H18" t="n">
-        <v>76.57318454217989</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,22 +5597,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5621,25 +5621,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U18" t="n">
-        <v>2023.578676424718</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V18" t="n">
-        <v>1788.426568192975</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W18" t="n">
-        <v>1534.189211464774</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X18" t="n">
-        <v>1326.337711259241</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y18" t="n">
-        <v>1118.577412494287</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>502.263946059962</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C19" t="n">
-        <v>502.263946059962</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D19" t="n">
-        <v>502.263946059962</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E19" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F19" t="n">
-        <v>207.4609049796586</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5703,22 +5703,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>502.263946059962</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>502.263946059962</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V19" t="n">
-        <v>502.263946059962</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W19" t="n">
-        <v>502.263946059962</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X19" t="n">
-        <v>502.263946059962</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y19" t="n">
-        <v>502.263946059962</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1187.033872869333</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C20" t="n">
-        <v>818.0713559289213</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D20" t="n">
-        <v>459.8056573221708</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>125.0460219988867</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2244.331173744098</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2244.331173744098</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2244.331173744098</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V20" t="n">
-        <v>1913.268286400527</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W20" t="n">
-        <v>1560.499631130413</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X20" t="n">
-        <v>1187.033872869333</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y20" t="n">
-        <v>1187.033872869333</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
         <v>48.81975253256327</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5870,13 +5870,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>238.1971257069884</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="C22" t="n">
-        <v>196.7328461149564</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="D22" t="n">
-        <v>196.7328461149564</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5937,25 +5937,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="W22" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="X22" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="Y22" t="n">
-        <v>419.8455905372281</v>
+        <v>135.4207008687039</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1320.351733107588</v>
+        <v>1649.955042051474</v>
       </c>
       <c r="C23" t="n">
-        <v>951.3892161671761</v>
+        <v>1398.355276762313</v>
       </c>
       <c r="D23" t="n">
-        <v>951.3892161671761</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E23" t="n">
-        <v>951.3892161671761</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F23" t="n">
-        <v>540.4033113775685</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H23" t="n">
         <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
         <v>145.9660485697318</v>
@@ -6007,7 +6007,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
@@ -6016,25 +6016,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T23" t="n">
-        <v>2278.660072700356</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.880378712238</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V23" t="n">
-        <v>1693.817491368668</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W23" t="n">
-        <v>1693.817491368668</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X23" t="n">
-        <v>1320.351733107588</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="Y23" t="n">
-        <v>1320.351733107588</v>
+        <v>1649.955042051474</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439335</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628066</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015553</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960998</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F24" t="n">
-        <v>155.419303992815</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G24" t="n">
-        <v>155.419303992815</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
@@ -6101,10 +6101,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
         <v>1306.011707534488</v>
@@ -6113,7 +6113,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C25" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D25" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E25" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F25" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6177,22 +6177,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>507.0990552317248</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="V25" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="W25" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X25" t="n">
-        <v>412.6486187827409</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1263.781575849841</v>
+        <v>1126.705044379388</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.781575849841</v>
+        <v>757.7425274389766</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.781575849841</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9933232515971</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F26" t="n">
         <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2413.986506150855</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U26" t="n">
-        <v>2413.986506150855</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V26" t="n">
-        <v>2413.986506150855</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="W26" t="n">
-        <v>2413.986506150855</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.520747889775</v>
+        <v>1516.8443763552</v>
       </c>
       <c r="Y26" t="n">
-        <v>1650.381415913963</v>
+        <v>1126.705044379388</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C27" t="n">
-        <v>610.1257266326368</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D27" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E27" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F27" t="n">
-        <v>155.4193039928149</v>
+        <v>155.419303992815</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S27" t="n">
         <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2085.972860794548</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1857.795356864263</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V27" t="n">
-        <v>1622.64324863252</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W27" t="n">
-        <v>1368.405891904318</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1160.554391698786</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.7940929338317</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C28" t="n">
-        <v>493.7394330252025</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D28" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E28" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6411,25 +6411,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U28" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="V28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="W28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1267.631526924731</v>
+        <v>1290.782696327151</v>
       </c>
       <c r="C29" t="n">
-        <v>898.669009984319</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D29" t="n">
-        <v>540.4033113775685</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>540.4033113775685</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6481,7 +6481,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2005.929284707482</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1674.866397363912</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W29" t="n">
-        <v>1322.097742093798</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X29" t="n">
-        <v>1267.631526924731</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y29" t="n">
-        <v>1267.631526924731</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K30" t="n">
         <v>285.1110033225004</v>
@@ -6557,37 +6557,37 @@
         <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2261.353028937149</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="C31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="D31" t="n">
-        <v>490.5215302684225</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E31" t="n">
-        <v>342.6084366860293</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6651,22 +6651,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="X31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1427.142334314845</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="C32" t="n">
-        <v>1058.179817374433</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="D32" t="n">
-        <v>1058.179817374433</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E32" t="n">
-        <v>1058.179817374433</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F32" t="n">
-        <v>647.1939125848255</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>229.0062466553993</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6706,7 +6706,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2301.043891376687</v>
       </c>
       <c r="U32" t="n">
-        <v>2187.207932640046</v>
+        <v>2301.043891376687</v>
       </c>
       <c r="V32" t="n">
-        <v>2187.207932640046</v>
+        <v>1969.981004033117</v>
       </c>
       <c r="W32" t="n">
-        <v>2187.207932640046</v>
+        <v>1617.212348763003</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.742174378966</v>
+        <v>1243.746590501923</v>
       </c>
       <c r="Y32" t="n">
-        <v>1813.742174378966</v>
+        <v>853.6072585261113</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,52 +6779,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>523.2870354054758</v>
+        <v>367.8725748728059</v>
       </c>
       <c r="C34" t="n">
-        <v>354.3508524775689</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D34" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256327</v>
@@ -6885,25 +6885,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U34" t="n">
-        <v>523.2870354054758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V34" t="n">
-        <v>523.2870354054758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W34" t="n">
-        <v>523.2870354054758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X34" t="n">
-        <v>523.2870354054758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.2870354054758</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>828.7681742625825</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C35" t="n">
-        <v>459.8056573221708</v>
+        <v>852.7295806534291</v>
       </c>
       <c r="D35" t="n">
-        <v>459.8056573221708</v>
+        <v>852.7295806534291</v>
       </c>
       <c r="E35" t="n">
-        <v>459.8056573221708</v>
+        <v>466.9413280551849</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256328</v>
+        <v>55.95542326557734</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,34 +6955,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2379.866357164473</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2198.587709231909</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T35" t="n">
-        <v>1978.973104563596</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U35" t="n">
-        <v>1978.973104563596</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V35" t="n">
-        <v>1978.973104563596</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W35" t="n">
-        <v>1978.973104563596</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X35" t="n">
-        <v>1605.507346302516</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y35" t="n">
-        <v>1215.368014326704</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>779.834467487422</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C36" t="n">
-        <v>605.381438206295</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D36" t="n">
-        <v>456.4470285450437</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E36" t="n">
-        <v>297.2095735395882</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F36" t="n">
-        <v>155.419303992815</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G36" t="n">
-        <v>155.419303992815</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2677802593125</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7043,25 +7043,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2280.589895521038</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2081.228572368207</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V36" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W36" t="n">
-        <v>1363.661603477977</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X36" t="n">
-        <v>1155.810103272444</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y36" t="n">
-        <v>948.0498045074901</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.7559354604702</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256328</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256328</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256328</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7122,25 +7122,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>424.5997883913116</v>
+        <v>582.3404033755862</v>
       </c>
       <c r="X37" t="n">
-        <v>424.5997883913116</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="Y37" t="n">
-        <v>399.4044002907099</v>
+        <v>354.3508524775689</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1632.744092790253</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.781575849841</v>
+        <v>852.7295806534296</v>
       </c>
       <c r="D38" t="n">
-        <v>1263.781575849841</v>
+        <v>852.7295806534296</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9933232515971</v>
+        <v>466.9413280551854</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>55.95542326557779</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2392.809691115455</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S38" t="n">
-        <v>2392.809691115455</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T38" t="n">
-        <v>2392.809691115455</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U38" t="n">
-        <v>2392.809691115455</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V38" t="n">
-        <v>2392.809691115455</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="W38" t="n">
-        <v>2392.809691115455</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="X38" t="n">
-        <v>2019.343932854375</v>
+        <v>1998.431269633775</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.343932854375</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>922.6086434646021</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C39" t="n">
-        <v>748.1556141834751</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D39" t="n">
-        <v>599.2212045222238</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E39" t="n">
-        <v>439.9837495167684</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.419303992815</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2224.002748345386</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1995.825244415101</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V39" t="n">
-        <v>1760.673136183358</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W39" t="n">
-        <v>1506.435779455157</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X39" t="n">
-        <v>1298.584279249624</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y39" t="n">
-        <v>1090.82398048467</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>271.9381101070627</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>271.9381101070627</v>
+        <v>507.0990552317248</v>
       </c>
       <c r="U40" t="n">
-        <v>271.9381101070627</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="V40" t="n">
-        <v>271.9381101070627</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="W40" t="n">
-        <v>271.9381101070627</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.9199677091172</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>990.8644291665478</v>
+        <v>967.9124036057235</v>
       </c>
       <c r="C41" t="n">
-        <v>621.901912226136</v>
+        <v>967.9124036057235</v>
       </c>
       <c r="D41" t="n">
-        <v>621.901912226136</v>
+        <v>967.9124036057235</v>
       </c>
       <c r="E41" t="n">
-        <v>621.901912226136</v>
+        <v>582.1241510074792</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>171.1382462178717</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>171.1382462178717</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2284.449908424358</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T41" t="n">
-        <v>2064.835303756044</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U41" t="n">
-        <v>2064.835303756044</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V41" t="n">
-        <v>1733.772416412474</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W41" t="n">
-        <v>1381.00376114236</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="X41" t="n">
-        <v>1381.00376114236</v>
+        <v>1744.651575645657</v>
       </c>
       <c r="Y41" t="n">
-        <v>990.8644291665478</v>
+        <v>1354.512243669845</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T42" t="n">
-        <v>2082.31770950907</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U42" t="n">
-        <v>1854.140205578785</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V42" t="n">
-        <v>1618.988097347042</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W42" t="n">
-        <v>1364.750740618841</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.2392585196878</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="C43" t="n">
-        <v>260.2392585196878</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="D43" t="n">
-        <v>260.2392585196878</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="E43" t="n">
-        <v>260.2392585196878</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="F43" t="n">
-        <v>260.2392585196878</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>260.2392585196878</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>101.5981060725926</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256327</v>
@@ -7593,28 +7593,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>260.2392585196878</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>260.2392585196878</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V43" t="n">
-        <v>260.2392585196878</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W43" t="n">
-        <v>260.2392585196878</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X43" t="n">
-        <v>260.2392585196878</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.2392585196878</v>
+        <v>123.4695312601332</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>779.8344674874215</v>
+        <v>930.0360717494659</v>
       </c>
       <c r="C45" t="n">
-        <v>605.3814382062945</v>
+        <v>755.5830424683389</v>
       </c>
       <c r="D45" t="n">
-        <v>456.4470285450433</v>
+        <v>606.6486328070877</v>
       </c>
       <c r="E45" t="n">
-        <v>297.2095735395878</v>
+        <v>447.4111778016322</v>
       </c>
       <c r="F45" t="n">
-        <v>150.6750155664728</v>
+        <v>300.8766198285172</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>162.8467322776788</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1155.810103272443</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="Y45" t="n">
-        <v>948.0498045074896</v>
+        <v>1098.251408769534</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>207.4609049796586</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="C46" t="n">
-        <v>207.4609049796586</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="D46" t="n">
-        <v>207.4609049796586</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E46" t="n">
-        <v>207.4609049796586</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F46" t="n">
-        <v>207.4609049796586</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>424.5997883913116</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="U46" t="n">
-        <v>389.1093698098982</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="V46" t="n">
-        <v>389.1093698098982</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="W46" t="n">
-        <v>389.1093698098982</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="X46" t="n">
-        <v>389.1093698098982</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="Y46" t="n">
-        <v>389.1093698098982</v>
+        <v>364.8099152070275</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K12" t="n">
-        <v>74.42821185443506</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453156</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>268.6397271670517</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>339.4781965639073</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>350.1782012838664</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>47.05945776434652</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3910720113375</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>98.18145670663748</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23436,7 +23436,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>52.22830032617343</v>
@@ -23472,10 +23472,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>273.4807096638052</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>235.6803650721834</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>156.24884648533</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>97.39144430711919</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>52.22830032617343</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>71.6031530790091</v>
       </c>
       <c r="T16" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>239.0477053310876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>192.8103976769519</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>165.0425470628734</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="I18" t="n">
-        <v>38.02889906600396</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23943,10 +23943,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>88.46937916346505</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>86.38093004755174</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>338.5417824984718</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>53.17566584398929</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
@@ -24028,16 +24028,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>198.4198312014622</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>126.1971843025161</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>81.67427417200913</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24177,13 +24177,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>116.1891241347375</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>56.71418023310019</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>61.77024252613239</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>61.77024252613192</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>136.64958867533</v>
@@ -24417,10 +24417,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>93.25613724351024</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.80328878920736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>66.85528373346574</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>41.66858347344075</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>61.77024252613192</v>
       </c>
       <c r="G27" t="n">
         <v>136.64958867533</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>61.77024252613191</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>21.81707180962769</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24651,16 +24651,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>166.4027044710488</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>338.5417824984713</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>315.8095476610927</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>38.02889906600331</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>74.46239723693429</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>11.62499163362418</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24891,10 +24891,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>147.8078017200219</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24970,22 +24970,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>78.87416072266922</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>123.6720387986167</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25125,13 +25125,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>170.109673714852</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>406.941475244448</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.889635976922129</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4.696845542078364</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>35.81287827175942</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25362,7 +25362,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>228.8082096944707</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.6412191324991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>406.9414752444476</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>20.70353658839424</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.052121280158559</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>61.77024252613214</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>93.25613724351024</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>172.2316944150711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>205.0971221531743</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.49352043147024</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>39.626077405407</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
-        <v>58.15164275350909</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>71.51776708263704</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>85.70460463370401</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25833,16 +25833,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>35.81287827175962</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>58.15164275350924</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>166.2678860956121</v>
       </c>
       <c r="U46" t="n">
-        <v>251.1517822517824</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>595748.2430345581</v>
+        <v>595748.243034558</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>595748.243034558</v>
+        <v>595748.2430345583</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>595748.243034558</v>
+        <v>595748.2430345581</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>595748.2430345581</v>
+        <v>595748.2430345579</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595748.2430345581</v>
+        <v>595748.243034558</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595748.243034558</v>
+        <v>595748.2430345581</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>379599.3508404949</v>
+      </c>
+      <c r="F2" t="n">
         <v>379599.350840495</v>
-      </c>
-      <c r="F2" t="n">
-        <v>379599.3508404949</v>
       </c>
       <c r="G2" t="n">
         <v>379599.350840495</v>
@@ -26334,19 +26334,19 @@
         <v>379599.350840495</v>
       </c>
       <c r="I2" t="n">
+        <v>379599.3508404949</v>
+      </c>
+      <c r="J2" t="n">
+        <v>379599.3508404949</v>
+      </c>
+      <c r="K2" t="n">
+        <v>379599.350840495</v>
+      </c>
+      <c r="L2" t="n">
+        <v>379599.350840495</v>
+      </c>
+      <c r="M2" t="n">
         <v>379599.3508404948</v>
-      </c>
-      <c r="J2" t="n">
-        <v>379599.350840495</v>
-      </c>
-      <c r="K2" t="n">
-        <v>379599.3508404949</v>
-      </c>
-      <c r="L2" t="n">
-        <v>379599.3508404949</v>
-      </c>
-      <c r="M2" t="n">
-        <v>379599.3508404949</v>
       </c>
       <c r="N2" t="n">
         <v>379599.350840495</v>
@@ -26355,7 +26355,7 @@
         <v>379599.3508404949</v>
       </c>
       <c r="P2" t="n">
-        <v>379599.3508404948</v>
+        <v>379599.350840495</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
-        <v>8.522183634340765e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26490,22 +26490,22 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="J5" t="n">
         <v>44136.03802033843</v>
       </c>
-      <c r="J5" t="n">
-        <v>44136.03802033842</v>
-      </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>141450.7427626102</v>
       </c>
       <c r="C6" t="n">
-        <v>222220.1742941581</v>
+        <v>222220.1742941579</v>
       </c>
       <c r="D6" t="n">
-        <v>222220.1742941578</v>
+        <v>222220.1742941579</v>
       </c>
       <c r="E6" t="n">
-        <v>-67753.83693691532</v>
+        <v>-61481.80482055635</v>
       </c>
       <c r="F6" t="n">
-        <v>301681.4621958646</v>
+        <v>307953.4943122238</v>
       </c>
       <c r="G6" t="n">
-        <v>301681.4621958648</v>
+        <v>307953.4943122239</v>
       </c>
       <c r="H6" t="n">
-        <v>301681.4621958648</v>
+        <v>307953.4943122238</v>
       </c>
       <c r="I6" t="n">
-        <v>301681.4621958646</v>
+        <v>307953.4943122237</v>
       </c>
       <c r="J6" t="n">
-        <v>238621.5195967586</v>
+        <v>244893.5517131174</v>
       </c>
       <c r="K6" t="n">
-        <v>301681.4621958647</v>
+        <v>307953.4943122237</v>
       </c>
       <c r="L6" t="n">
-        <v>301681.4621958647</v>
+        <v>307953.4943122238</v>
       </c>
       <c r="M6" t="n">
-        <v>209667.2169147716</v>
+        <v>215939.2490311305</v>
       </c>
       <c r="N6" t="n">
-        <v>301681.4621958648</v>
+        <v>307953.4943122238</v>
       </c>
       <c r="O6" t="n">
-        <v>301681.4621958646</v>
+        <v>307953.4943122237</v>
       </c>
       <c r="P6" t="n">
-        <v>301681.4621958646</v>
+        <v>307953.4943122238</v>
       </c>
     </row>
   </sheetData>
@@ -26810,22 +26810,22 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="J4" t="n">
         <v>610.246906657041</v>
       </c>
-      <c r="J4" t="n">
-        <v>610.2469066570409</v>
-      </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -26971,7 +26971,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>1.078150109664906e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G2" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27447,7 +27447,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>61.60144464332727</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>142.7026030180151</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>34.50357226344606</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>306.4964087890903</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.1500418120661</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>177.9977020704679</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>392.3966171480263</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,10 +27934,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>83.88699926358287</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>52.12524442645605</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64100594280298</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695264</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36214,13 +36214,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36454,10 +36454,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36685,7 +36685,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
-        <v>416.3693146658877</v>
+        <v>291.1467225562099</v>
       </c>
       <c r="P30" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
-        <v>382.95671022767</v>
+        <v>351.5945614881181</v>
       </c>
       <c r="M36" t="n">
         <v>499.39668221774</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37636,13 +37636,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.9000637909527</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
         <v>499.39668221774</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
